--- a/public/files/downloads/things.xlsx
+++ b/public/files/downloads/things.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palant\DOCS\GITHUB\cyborgsandmages\public\files\downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829EFB5B-412C-4DD3-A830-413954370474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="750" windowWidth="22515" windowHeight="8640"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
   <si>
     <t>Things Found on the Roadside</t>
   </si>
@@ -298,12 +302,15 @@
   </si>
   <si>
     <t>A hollow holds three graves, surrounded by ivy</t>
+  </si>
+  <si>
+    <t>Стовпець1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,7 +348,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -349,14 +356,41 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CE4C52C-1EEB-4F9E-B33C-3E0C1D48D7AB}" name="Таблиця1" displayName="Таблиця1" ref="E2:G52" totalsRowShown="0">
+  <autoFilter ref="E2:G52" xr:uid="{1CE4C52C-1EEB-4F9E-B33C-3E0C1D48D7AB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2631D157-5D7C-40D5-9890-24D23493278C}" name="d%"/>
+    <tableColumn id="2" xr3:uid="{C55F0B3E-F532-4FBF-94F0-70B176EE35AD}" name="Location"/>
+    <tableColumn id="3" xr3:uid="{D10801D4-B664-4FD7-8466-1B4C7477ABAD}" name="Стовпець1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{788ECFAB-B5EC-4CB2-AAFC-E229E0E3BCCE}" name="Таблиця2" displayName="Таблиця2" ref="A2:C41" totalsRowShown="0">
+  <autoFilter ref="A2:C41" xr:uid="{788ECFAB-B5EC-4CB2-AAFC-E229E0E3BCCE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{379D6FCF-85AB-43ED-8522-0CC3621C71CD}" name="d%"/>
+    <tableColumn id="2" xr3:uid="{1A0CE26B-4D92-441B-AFC5-38E3C06778F6}" name="Item or Location"/>
+    <tableColumn id="3" xr3:uid="{F838504A-1435-4A2E-A2FB-BE495A31828F}" name="Стовпець1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -394,7 +428,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -466,7 +500,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,20 +673,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="68.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" customWidth="1"/>
+    <col min="6" max="6" width="68.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,21 +701,27 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -696,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -716,7 +761,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -736,7 +781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -756,7 +801,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -776,7 +821,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>3</v>
       </c>
@@ -796,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3</v>
       </c>
@@ -816,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -836,7 +881,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -856,7 +901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -876,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -896,7 +941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -916,7 +961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -936,7 +981,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -956,7 +1001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3</v>
       </c>
@@ -976,7 +1021,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -996,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1016,7 +1061,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1036,7 +1081,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1056,7 +1101,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1076,7 +1121,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1096,7 +1141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1116,7 +1161,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1136,7 +1181,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1156,7 +1201,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1176,7 +1221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1196,7 +1241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1216,7 +1261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1236,7 +1281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1256,7 +1301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1276,7 +1321,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1296,7 +1341,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1316,7 +1361,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1336,7 +1381,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1356,7 +1401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1376,7 +1421,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1396,7 +1441,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1416,7 +1461,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1436,7 +1481,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1456,7 +1501,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E42">
         <v>2</v>
       </c>
@@ -1467,7 +1512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E43">
         <v>2</v>
       </c>
@@ -1478,7 +1523,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E44">
         <v>2</v>
       </c>
@@ -1489,7 +1534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E45">
         <v>2</v>
       </c>
@@ -1500,7 +1545,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E46">
         <v>2</v>
       </c>
@@ -1511,7 +1556,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E47">
         <v>2</v>
       </c>
@@ -1522,7 +1567,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E48">
         <v>2</v>
       </c>
@@ -1533,7 +1578,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49">
         <v>2</v>
       </c>
@@ -1544,7 +1589,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50">
         <v>2</v>
       </c>
@@ -1555,7 +1600,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51">
         <v>2</v>
       </c>
@@ -1566,7 +1611,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52">
         <v>2</v>
       </c>
@@ -1582,29 +1627,9 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/public/files/downloads/things.xlsx
+++ b/public/files/downloads/things.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Palant\DOCS\GITHUB\cyborgsandmages\public\files\downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829EFB5B-412C-4DD3-A830-413954370474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="750" windowWidth="22515" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="94">
   <si>
     <t>Things Found on the Roadside</t>
   </si>
@@ -302,15 +298,12 @@
   </si>
   <si>
     <t>A hollow holds three graves, surrounded by ivy</t>
-  </si>
-  <si>
-    <t>Стовпець1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +341,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -356,41 +349,14 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1CE4C52C-1EEB-4F9E-B33C-3E0C1D48D7AB}" name="Таблиця1" displayName="Таблиця1" ref="E2:G52" totalsRowShown="0">
-  <autoFilter ref="E2:G52" xr:uid="{1CE4C52C-1EEB-4F9E-B33C-3E0C1D48D7AB}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2631D157-5D7C-40D5-9890-24D23493278C}" name="d%"/>
-    <tableColumn id="2" xr3:uid="{C55F0B3E-F532-4FBF-94F0-70B176EE35AD}" name="Location"/>
-    <tableColumn id="3" xr3:uid="{D10801D4-B664-4FD7-8466-1B4C7477ABAD}" name="Стовпець1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{788ECFAB-B5EC-4CB2-AAFC-E229E0E3BCCE}" name="Таблиця2" displayName="Таблиця2" ref="A2:C41" totalsRowShown="0">
-  <autoFilter ref="A2:C41" xr:uid="{788ECFAB-B5EC-4CB2-AAFC-E229E0E3BCCE}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{379D6FCF-85AB-43ED-8522-0CC3621C71CD}" name="d%"/>
-    <tableColumn id="2" xr3:uid="{1A0CE26B-4D92-441B-AFC5-38E3C06778F6}" name="Item or Location"/>
-    <tableColumn id="3" xr3:uid="{F838504A-1435-4A2E-A2FB-BE495A31828F}" name="Стовпець1"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -428,7 +394,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -500,7 +466,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -673,25 +639,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="68.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" hidden="1"/>
+    <col min="2" max="2" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,27 +662,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>43</v>
       </c>
-      <c r="G2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -741,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -761,7 +716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -781,7 +736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -801,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
@@ -821,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -841,7 +796,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -861,7 +816,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -881,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -901,7 +856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -921,7 +876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -941,7 +896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -961,7 +916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -981,7 +936,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1001,7 +956,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1021,7 +976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1041,7 +996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1061,7 +1016,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1081,7 +1036,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1101,7 +1056,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1121,7 +1076,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1141,7 +1096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1161,7 +1116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1181,7 +1136,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1201,7 +1156,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1221,7 +1176,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1241,7 +1196,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1261,7 +1216,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1281,7 +1236,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1301,7 +1256,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1321,7 +1276,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1341,7 +1296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1361,7 +1316,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1381,7 +1336,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -1401,7 +1356,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1421,7 +1376,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1441,7 +1396,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1461,7 +1416,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1481,7 +1436,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1501,7 +1456,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>2</v>
       </c>
@@ -1512,7 +1467,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>2</v>
       </c>
@@ -1523,7 +1478,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>2</v>
       </c>
@@ -1534,7 +1489,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>2</v>
       </c>
@@ -1545,7 +1500,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>2</v>
       </c>
@@ -1556,7 +1511,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>2</v>
       </c>
@@ -1567,7 +1522,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>2</v>
       </c>
@@ -1578,7 +1533,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>2</v>
       </c>
@@ -1589,7 +1544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>2</v>
       </c>
@@ -1600,7 +1555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>2</v>
       </c>
@@ -1611,7 +1566,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>2</v>
       </c>
@@ -1627,9 +1582,29 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>